--- a/biology/Microbiologie/Chloroflexota/Chloroflexota.xlsx
+++ b/biology/Microbiologie/Chloroflexota/Chloroflexota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chloroflexota – anciennement Chlorobacteria (en français les Chlorobactéries) – forment un embranchement (ou phylum, ou encore division) du règne des Bacteria. Son nom provient de Chloroflexus qui est le genre type de cet embranchement.
 Certains auteurs pensent que ce phylum pourrait être l'un des plus anciens existant encore.
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thomas Cavalier-Smith a fait du phylum Chlorobacteria un des phylums de sa classification[2]. Il est possible que ce soit l'embranchement bactérien le plus ancien qui existe encore à l'heure actuelle[3] : la racine de l'arbre du vivant pourrait donc se trouver parmi les chlorobactéries ou bien entre les chlorobactéries et le reste du vivant.
-Les chlorobactéries tirent leur nom du genre Chloroflexus, qui a lui-même donné son nom à la classe des Chloroflexi. Les chlorobactéries possèdent des métabolismes variés même si le plus typique est la photohétérotrophie anoxygénique des chloroflèxes. En 2021, Oren et Garrity rectifient la nomenclature des phyla bactérien et parmi ceux-ci celui des chlorobactéries qui deviennent les Chloroflexota[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thomas Cavalier-Smith a fait du phylum Chlorobacteria un des phylums de sa classification. Il est possible que ce soit l'embranchement bactérien le plus ancien qui existe encore à l'heure actuelle : la racine de l'arbre du vivant pourrait donc se trouver parmi les chlorobactéries ou bien entre les chlorobactéries et le reste du vivant.
+Les chlorobactéries tirent leur nom du genre Chloroflexus, qui a lui-même donné son nom à la classe des Chloroflexi. Les chlorobactéries possèdent des métabolismes variés même si le plus typique est la photohétérotrophie anoxygénique des chloroflèxes. En 2021, Oren et Garrity rectifient la nomenclature des phyla bactérien et parmi ceux-ci celui des chlorobactéries qui deviennent les Chloroflexota.
 </t>
         </is>
       </c>
@@ -546,10 +560,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Étymologie
-L'étymologie de ce phylum Chloroflexota est la suivante : Chlo.ro.fle.xo’ta N.L. masc. n. Chloroflexus, genre type de ce phylum; N.L. neut. pl. n. suff. -ota, suffixe pour définir un phylum; N.L. neut. pl. n. Chloroflexota, le phylum des Chloroflexus[1],[4].
-Liste des classes
-Selon la LPSN  (11 novembre 2022)[5] :
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de ce phylum Chloroflexota est la suivante : Chlo.ro.fle.xo’ta N.L. masc. n. Chloroflexus, genre type de ce phylum; N.L. neut. pl. n. suff. -ota, suffixe pour définir un phylum; N.L. neut. pl. n. Chloroflexota, le phylum des Chloroflexus,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chloroflexota</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chloroflexota</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (11 novembre 2022) :
 Anaerolineae Yamada et al. 2006
 Ardenticatenia Kawaichi et al. 2013
 Caldilineae Yamada et al. 2006
@@ -557,9 +611,43 @@
 Dehalococcoidia Löffler et al. 2013
 Ktedonobacteria corrig. Cavaletti et al. 2007
 Tepidiformia Kochetkova et al. 2020
-Thermoflexia Dodsworth et al. 2014
-Liste des Candidatus
-Selon la LPSN  (11 novembre 2022)[5], plusieurs classes n'ont pas été publiées de manière valide et sont en attente de validation:
+Thermoflexia Dodsworth et al. 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chloroflexota</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chloroflexota</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des Candidatus</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (11 novembre 2022), plusieurs classes n'ont pas été publiées de manière valide et sont en attente de validation:
 "Candidatus Bathosphaeria" Mehrshad et al. 2018
 "Candidatus Limnocylindria" Mehrshad et al. 2018
 "Candidatus Thermofontia" corrig. Ward et al. 2018
@@ -567,63 +655,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Chloroflexota</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Microbiologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chloroflexota</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Controverse sur leur structure</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les chlorobactéries sont traditionnellement considérées comme des bactéries Gram négative à structure bimembranée. Il semblerait pourtant que certains membres aient une structure unimembranée[6], ce qui jette le doute sur la monophylie de ce taxon.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Chloroflexota</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Microbiologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chloroflexota</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Position phylogénétique supposée</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -645,10 +676,73 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Controverse sur leur structure</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chlorobactéries sont traditionnellement considérées comme des bactéries Gram négative à structure bimembranée. Il semblerait pourtant que certains membres aient une structure unimembranée, ce qui jette le doute sur la monophylie de ce taxon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chloroflexota</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chloroflexota</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Position phylogénétique supposée</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chloroflexota</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chloroflexota</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">‘Candidatus Chlorothrix’♠
 ‘Candidatus Chlorothrix halophila’♠
